--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_8_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_8_sawtooth_05_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09164551765093409</v>
+        <v>0.01292196911652788</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09164551765093409</v>
+        <v>0.01292196911652788</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.917384920965809</v>
+        <v>7.726631014939382</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.7867728771092697, 12.621542719040887]</t>
+          <t>[1.4288789478104444, 14.024383082068319]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.08220526214738877</v>
+        <v>0.01732269980790213</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08220526214738877</v>
+        <v>0.01732269980790213</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.660421342437848</v>
+        <v>-1.358526552903694</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.1824742396725423, -0.13836844520315417]</t>
+          <t>[-2.5409478119124658, -0.1761052938949219]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0331957804759937</v>
+        <v>0.02528627325536359</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0331957804759937</v>
+        <v>0.02528627325536359</v>
       </c>
       <c r="T2" t="n">
-        <v>12.58131426366384</v>
+        <v>13.61661143040918</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.71976799175501, 16.442860535572667]</t>
+          <t>[9.909502460270403, 17.323720400547963]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.556483945705736e-08</v>
+        <v>2.627541295652236e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>4.556483945705736e-08</v>
+        <v>2.627541295652236e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>6.791591591591743</v>
+        <v>5.597837837837965</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5659659659659786</v>
+        <v>0.7256456456456544</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.01721721721751</v>
+        <v>10.47003003003027</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3692541228093691</v>
+        <v>0.06447974858582495</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3692541228093691</v>
+        <v>0.06447974858582495</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.396502003571554</v>
+        <v>6.850630382474406</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.6610809398375803, 12.454084946980688]</t>
+          <t>[-0.9608693945668936, 14.662130159515705]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.277627917141849</v>
+        <v>0.08411935290270067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.277627917141849</v>
+        <v>0.08411935290270067</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.912000333716311</v>
+        <v>-2.11326352673908</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.993842976877469, 1.1698423094448476]</t>
+          <t>[-4.012684910891467, -0.21384214258669232]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2179183572283785</v>
+        <v>0.03001587695120689</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2179183572283785</v>
+        <v>0.03001587695120689</v>
       </c>
       <c r="T3" t="n">
-        <v>12.13640932245292</v>
+        <v>11.26987483576655</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.680326105460116, 16.59249253944573]</t>
+          <t>[7.233418965955066, 15.306330705578036]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.799472424846016e-06</v>
+        <v>1.127211151308316e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.799472424846016e-06</v>
+        <v>1.127211151308316e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.820620620620794</v>
+        <v>8.707747747747952</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.784984984985094</v>
+        <v>0.8811411411411614</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.42622622622668</v>
+        <v>16.53435435435474</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1634903269464322</v>
+        <v>0.1672432642505525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1634903269464322</v>
+        <v>0.1672432642505525</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.91395064403163</v>
+        <v>6.200276816141372</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.1707323323173995, 13.998633620380659]</t>
+          <t>[-2.087779202487006, 14.48833283476975]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1476264011233634</v>
+        <v>0.1388641014438761</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1476264011233634</v>
+        <v>0.1388641014438761</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.654158357987773</v>
+        <v>-2.503210963220696</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.7422904759308935, 0.4339737599553466]</t>
+          <t>[-5.616500980291663, 0.6100790538502707]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.09029283865871229</v>
+        <v>0.1123449703965937</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09029283865871229</v>
+        <v>0.1123449703965937</v>
       </c>
       <c r="T4" t="n">
-        <v>11.0933106975736</v>
+        <v>12.14863239030825</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.89766755046209, 15.288953844685109]</t>
+          <t>[7.711953790041848, 16.585310990574648]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.092198064491569e-06</v>
+        <v>1.628106407913776e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.092198064491569e-06</v>
+        <v>1.628106407913776e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>10.8562562562565</v>
+        <v>10.31453453453478</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.775075075075115</v>
+        <v>-2.513843843843905</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.48758758758812</v>
+        <v>23.14291291291346</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2458076235979088</v>
+        <v>0.4536700667485933</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2458076235979088</v>
+        <v>0.4536700667485933</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.706851525040698</v>
+        <v>4.615596368704816</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.428756730361065, 13.84245978044246]</t>
+          <t>[-4.494234548839005, 13.725427286248637]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1645867401887258</v>
+        <v>0.3129617409276981</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1645867401887258</v>
+        <v>0.3129617409276981</v>
       </c>
       <c r="P5" t="n">
-        <v>2.987500521431735</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 5.817764173314432]</t>
+          <t>[-6.182553710668202, 0.04402632347373103]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.03902427509873241</v>
+        <v>0.05318883962990562</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03902427509873241</v>
+        <v>0.05318883962990562</v>
       </c>
       <c r="T5" t="n">
-        <v>12.9871200243219</v>
+        <v>13.0647538840244</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.31837789801272, 17.655862150631073]</t>
+          <t>[8.063803214818225, 18.06570455323058]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.209550893888078e-06</v>
+        <v>3.830072023314202e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.209550893888078e-06</v>
+        <v>3.830072023314202e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>13.48028028028058</v>
+        <v>12.64696696696726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.903703703703744</v>
+        <v>-0.1814114114114158</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.05685685685742</v>
+        <v>25.47534534534594</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2402642621119405</v>
+        <v>0.369986612720908</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2402642621119405</v>
+        <v>0.369986612720908</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.620058596444759</v>
+        <v>4.497545682622563</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.6250066540231884, 14.865123846912706]</t>
+          <t>[-3.346162569217997, 12.341253934463122]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2271840932783051</v>
+        <v>0.2542365288160957</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2271840932783051</v>
+        <v>0.2542365288160957</v>
       </c>
       <c r="P6" t="n">
-        <v>2.295658295415965</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, 5.434106211614778]</t>
+          <t>[-0.10063159651138509, 6.125948437630547]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1476467897293976</v>
+        <v>0.05754556944829559</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1476467897293976</v>
+        <v>0.05754556944829559</v>
       </c>
       <c r="T6" t="n">
-        <v>13.40931300219302</v>
+        <v>11.74108621338733</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.631135920896314, 18.187490083489735]</t>
+          <t>[7.360616115949825, 16.121556310824843]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.021797316091977e-06</v>
+        <v>2.415800950172908e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.021797316091977e-06</v>
+        <v>2.415800950172908e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>16.31011011011048</v>
+        <v>13.47627627627659</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.472972972973048</v>
+        <v>0.6478978978979129</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.1472472472479</v>
+        <v>26.30465465465527</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.282717692031091</v>
+        <v>0.09597133774562805</v>
       </c>
       <c r="I7" t="n">
-        <v>0.282717692031091</v>
+        <v>0.09597133774562805</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.2074022596817</v>
+        <v>6.129767542609443</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.63627162827477, 14.05107614763817]</t>
+          <t>[-1.660323592868778, 13.919858678087664]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2418623550042116</v>
+        <v>0.1200077844895195</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2418623550042116</v>
+        <v>0.1200077844895195</v>
       </c>
       <c r="P7" t="n">
         <v>2.55981623625835</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.5031579825569237, 5.622790455073624]</t>
+          <t>[-0.5094474573388847, 5.629079929855585]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09925408003927516</v>
+        <v>0.09992791656281441</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09925408003927516</v>
+        <v>0.09992791656281441</v>
       </c>
       <c r="T7" t="n">
-        <v>13.15420439588397</v>
+        <v>10.33766958051224</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.519906123905706, 17.788502667862232]</t>
+          <t>[6.371806946302778, 14.303532214721697]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.201757262238374e-07</v>
+        <v>3.983286414488418e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>8.201757262238374e-07</v>
+        <v>3.983286414488418e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>15.22962962962997</v>
+        <v>15.34222222222258</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.701201201201263</v>
+        <v>2.695255255255319</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.75805805805868</v>
+        <v>27.98918918918984</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4157198161398352</v>
+        <v>0.0313161502983299</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4157198161398352</v>
+        <v>0.0313161502983299</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.683237508548688</v>
+        <v>7.826665501974899</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.511749186643133, 10.878224203740508]</t>
+          <t>[0.18485261306303968, 15.468478390886759]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3080253299007096</v>
+        <v>0.04492864297524357</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3080253299007096</v>
+        <v>0.04492864297524357</v>
       </c>
       <c r="P8" t="n">
-        <v>1.654131867655887</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.471737098979002, 4.780000834290776]</t>
+          <t>[0.4339737599553466, 3.3522900587855045]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2921933258243663</v>
+        <v>0.01215566929480705</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2921933258243663</v>
+        <v>0.01215566929480705</v>
       </c>
       <c r="T8" t="n">
-        <v>10.69210746594831</v>
+        <v>11.24978539274458</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.628799361828477, 14.755415570068134]</t>
+          <t>[6.997992222159606, 15.501578563329556]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.3688678671151e-06</v>
+        <v>3.052879741449743e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.3688678671151e-06</v>
+        <v>3.052879741449743e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>18.93413413413456</v>
+        <v>18.08930930930974</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.148448448448587</v>
+        <v>12.0768168168171</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.71981981982053</v>
+        <v>24.10180180180237</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01970117287336581</v>
+        <v>0.2168822191435521</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01970117287336581</v>
+        <v>0.2168822191435521</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>8.320516826239414</v>
+        <v>4.287072567435112</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.3289468650567713, 16.312086787422057]</t>
+          <t>[-2.434915406897124, 11.009060541767349]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04164360411751122</v>
+        <v>0.2055294049066734</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04164360411751122</v>
+        <v>0.2055294049066734</v>
       </c>
       <c r="P9" t="n">
-        <v>2.459184639746966</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.5660792207084264, 3.352290058785505]</t>
+          <t>[-1.1761317842268095, 5.063027199479047]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.46665244238342e-06</v>
+        <v>0.2160459517692925</v>
       </c>
       <c r="S9" t="n">
-        <v>1.46665244238342e-06</v>
+        <v>0.2160459517692925</v>
       </c>
       <c r="T9" t="n">
-        <v>9.76331718242783</v>
+        <v>9.160703543478604</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.663259396932994, 13.863374967922667]</t>
+          <t>[5.5774562697242605, 12.743950817232948]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.807944782439286e-05</v>
+        <v>5.589991986632015e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.807944782439286e-05</v>
+        <v>5.589991986632015e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>15.64124124124159</v>
+        <v>17.8819819819824</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.98818818818846</v>
+        <v>5.0276876876878</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.29429429429472</v>
+        <v>30.736276276277</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2267244868303222</v>
+        <v>0.0580173215663693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2267244868303222</v>
+        <v>0.0580173215663693</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.007671953500129</v>
+        <v>7.221885068061589</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.8579871117567635, 12.873331018757021]</t>
+          <t>[-0.2249209155753391, 14.668691051698517]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2063113503605618</v>
+        <v>0.05702236839715402</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2063113503605618</v>
+        <v>0.05702236839715402</v>
       </c>
       <c r="P10" t="n">
-        <v>1.163552834662887</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9748950815359256, 4.302000750861699]</t>
+          <t>[0.2327105669325773, 3.000079470995657]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.4591213460507411</v>
+        <v>0.02306239220051887</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4591213460507411</v>
+        <v>0.02306239220051887</v>
       </c>
       <c r="T10" t="n">
-        <v>10.07298898831554</v>
+        <v>10.69682915427532</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.956409262000438, 14.189568714630642]</t>
+          <t>[6.360000884537634, 15.033657424013008]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.167234755605762e-05</v>
+        <v>1.023925767018596e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.167234755605762e-05</v>
+        <v>1.023925767018596e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>20.94074074074121</v>
+        <v>19.22960960961006</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.103603603603789</v>
+        <v>13.52810810810843</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.77787787787864</v>
+        <v>24.9311111111117</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.70000000000058</v>
+        <v>25.89000000000061</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01057488862717759</v>
+        <v>0.2062081759889305</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01057488862717759</v>
+        <v>0.2062081759889305</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.814516396446393</v>
+        <v>5.688357028054398</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[1.663957164955594, 15.965075627937193]</t>
+          <t>[-2.22687053517957, 13.603584591288366]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0168311496113327</v>
+        <v>0.154700633271039</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0168311496113327</v>
+        <v>0.154700633271039</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5849211547224238</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.22013161736865516, 1.3899739268135027]</t>
+          <t>[-2.528368862348542, 2.9686320970858504]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1503160979071532</v>
+        <v>0.8725692470700204</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1503160979071532</v>
+        <v>0.8725692470700204</v>
       </c>
       <c r="T11" t="n">
-        <v>13.13083759491309</v>
+        <v>12.10977700446058</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.28834176721189, 16.973333422614292]</t>
+          <t>[7.803492819932767, 16.416061188988397]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.521129133763566e-08</v>
+        <v>9.823338558145878e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.521129133763566e-08</v>
+        <v>9.823338558145878e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>23.30750750750803</v>
+        <v>24.98294294294353</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.01461461461506</v>
+        <v>13.65768768768801</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.600400400401</v>
+        <v>36.30819819819905</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.82000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5855596025326053</v>
+        <v>0.7022872428485402</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5855596025326053</v>
+        <v>0.7022872428485402</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>2.959205402448232</v>
+        <v>2.785204622729784</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.722662756912236, 10.6410735618087]</t>
+          <t>[-6.082857904994425, 11.653267150453994]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.4418833809794713</v>
+        <v>0.5302143632820662</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4418833809794713</v>
+        <v>0.5302143632820662</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5849211547224238</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.5472372866944273, 3.717079596139275]</t>
+          <t>[-2.390000417145388, 3.886895415252236]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.7085894492428921</v>
+        <v>0.6333286146673092</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7085894492428921</v>
+        <v>0.6333286146673092</v>
       </c>
       <c r="T12" t="n">
-        <v>10.59493485708881</v>
+        <v>13.35894409556317</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.5244084040105825, 14.665461310167046]</t>
+          <t>[8.693627031692376, 18.02426115943397]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.087726208634734e-06</v>
+        <v>6.908700374008703e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>4.087726208634734e-06</v>
+        <v>6.908700374008703e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>20.69561561561573</v>
+        <v>19.62602602602606</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.319879879879933</v>
+        <v>8.497177177177194</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.07135135135153</v>
+        <v>30.75487487487494</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.82000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3379046522962268</v>
+        <v>0.3014556044020993</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3379046522962268</v>
+        <v>0.3014556044020993</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.023419740437339</v>
+        <v>4.710172093800667</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.997642790254126, 14.044482271128803]</t>
+          <t>[-3.3556155212712433, 12.775959708872577]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2679977904910755</v>
+        <v>0.2457100023435246</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2679977904910755</v>
+        <v>0.2457100023435246</v>
       </c>
       <c r="P13" t="n">
-        <v>1.062921238151502</v>
+        <v>0.698131700797731</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.9874740310998487, 4.113316507402853]</t>
+          <t>[-2.427737265837157, 3.8240006674326192]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4864046144734884</v>
+        <v>0.6549925421248139</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4864046144734884</v>
+        <v>0.6549925421248139</v>
       </c>
       <c r="T13" t="n">
-        <v>11.21316027327633</v>
+        <v>12.0147305928815</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.492966948313383, 15.933353598239268]</t>
+          <t>[7.756022050563246, 16.273439135199744]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.877557805896046e-05</v>
+        <v>9.229871253957356e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.877557805896046e-05</v>
+        <v>9.229871253957356e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>18.95955955955966</v>
+        <v>19.80444444444448</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.880780780780823</v>
+        <v>8.720200200200223</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.03833833833851</v>
+        <v>30.88868868868875</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.82000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.158082474700735</v>
+        <v>0.1313605929482826</v>
       </c>
       <c r="I14" t="n">
-        <v>0.158082474700735</v>
+        <v>0.1313605929482826</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.350813634765467</v>
+        <v>6.443782649210299</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.5402728302605233, 15.241900099791458]</t>
+          <t>[-1.6074095928343333, 14.49497489125493]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1571679881681869</v>
+        <v>0.1139565387879025</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1571679881681869</v>
+        <v>0.1139565387879025</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8239211964369622</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.3082372449798894, 3.9560796378538137]</t>
+          <t>[-2.0629477284833877, 3.9875270117636203]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5988451438099238</v>
+        <v>0.5249923591005983</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5988451438099238</v>
+        <v>0.5249923591005983</v>
       </c>
       <c r="T14" t="n">
-        <v>13.8100442510614</v>
+        <v>13.55699431337308</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.221994765575271, 18.39809373654753]</t>
+          <t>[9.189789214888009, 17.924199411858154]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.521985342784916e-07</v>
+        <v>1.316829414399479e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.521985342784916e-07</v>
+        <v>1.316829414399479e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>19.8275875875877</v>
+        <v>18.86774774774779</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.451851851851899</v>
+        <v>8.140340340340359</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.2033233233235</v>
+        <v>29.59515515515521</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.82000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01411524757614513</v>
+        <v>0.2394891482682053</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01411524757614513</v>
+        <v>0.2394891482682053</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>7.139315127829266</v>
+        <v>4.7839659848234</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[1.5527391053595867, 12.725891150298946]</t>
+          <t>[-1.9714239679082333, 11.539355937555033]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.01341949112457619</v>
+        <v>0.1606749360671187</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01341949112457619</v>
+        <v>0.1606749360671187</v>
       </c>
       <c r="P15" t="n">
-        <v>1.427710775505271</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.3836579616996536, 2.4717635893108882]</t>
+          <t>[-1.484316048542925, 4.792579783854699]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.008458249341973367</v>
+        <v>0.2941080282738375</v>
       </c>
       <c r="S15" t="n">
-        <v>0.008458249341973367</v>
+        <v>0.2941080282738375</v>
       </c>
       <c r="T15" t="n">
-        <v>10.33765145988882</v>
+        <v>12.04490425478778</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.094464427959142, 13.5808384918185]</t>
+          <t>[8.18558044674332, 15.904228062832242]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.416212532973532e-08</v>
+        <v>1.173428878509242e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>7.416212532973532e-08</v>
+        <v>1.173428878509242e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>17.63467467467478</v>
+        <v>16.41449449449453</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.84276276276284</v>
+        <v>5.285645645645657</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.42658658658671</v>
+        <v>27.54334334334339</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_8_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_8_sawtooth_05_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01292196911652788</v>
+        <v>0.2435491481072152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01292196911652788</v>
+        <v>0.2435491481072152</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.726631014939382</v>
+        <v>4.822343937969918</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1.4288789478104444, 14.024383082068319]</t>
+          <t>[-2.9520645330216446, 12.59675240896148]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01732269980790213</v>
+        <v>0.2180086627311399</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01732269980790213</v>
+        <v>0.2180086627311399</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.358526552903694</v>
+        <v>-0.9560001668581553</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.5409478119124658, -0.1761052938949219]</t>
+          <t>[-4.094448083056968, 2.1824477493406578]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02528627325536359</v>
+        <v>0.5426251443794781</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02528627325536359</v>
+        <v>0.5426251443794781</v>
       </c>
       <c r="T2" t="n">
-        <v>13.61661143040918</v>
+        <v>11.81060437475884</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.909502460270403, 17.323720400547963]</t>
+          <t>[7.637632150099732, 15.983576599417939]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.627541295652236e-09</v>
+        <v>8.675019562698338e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.627541295652236e-09</v>
+        <v>8.675019562698338e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>5.597837837837965</v>
+        <v>3.951391391391486</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7256456456456544</v>
+        <v>-9.020610610610829</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.47003003003027</v>
+        <v>16.9233933933938</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06447974858582495</v>
+        <v>0.0657369789064205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06447974858582495</v>
+        <v>0.0657369789064205</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.850630382474406</v>
+        <v>6.260854836168226</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.9608693945668936, 14.662130159515705]</t>
+          <t>[-0.7908860018782047, 13.312595674214657]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.08411935290270067</v>
+        <v>0.08047592397927095</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08411935290270067</v>
+        <v>0.08047592397927095</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.11326352673908</v>
+        <v>-2.31452671976185</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.012684910891467, -0.21384214258669232]</t>
+          <t>[-4.798869258636661, 0.16981581911296217]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03001587695120689</v>
+        <v>0.06709030798486526</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03001587695120689</v>
+        <v>0.06709030798486526</v>
       </c>
       <c r="T3" t="n">
-        <v>11.26987483576655</v>
+        <v>11.22752956436068</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.233418965955066, 15.306330705578036]</t>
+          <t>[7.587659092141132, 14.867400036580227]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.127211151308316e-06</v>
+        <v>1.508210227818552e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.127211151308316e-06</v>
+        <v>1.508210227818552e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>8.707747747747952</v>
+        <v>9.566526526526754</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8811411411411614</v>
+        <v>-0.7018918918919113</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.53435435435474</v>
+        <v>19.83494494494542</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1672432642505525</v>
+        <v>0.4004166048821206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1672432642505525</v>
+        <v>0.4004166048821206</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.200276816141372</v>
+        <v>4.284605455663971</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.087779202487006, 14.48833283476975]</t>
+          <t>[-4.315750066776189, 12.884960978104132]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1388641014438761</v>
+        <v>0.3210308233580941</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1388641014438761</v>
+        <v>0.3210308233580941</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.503210963220696</v>
+        <v>-2.352263568453619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.616500980291663, 0.6100790538502707]</t>
+          <t>[-5.484422009870469, 0.7798948729632311]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1123449703965937</v>
+        <v>0.1373732811513591</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1123449703965937</v>
+        <v>0.1373732811513591</v>
       </c>
       <c r="T4" t="n">
-        <v>12.14863239030825</v>
+        <v>13.35963043969954</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.711953790041848, 16.585310990574648]</t>
+          <t>[8.99010646190883, 17.72915441749025]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.628106407913776e-06</v>
+        <v>1.818549923982005e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.628106407913776e-06</v>
+        <v>1.818549923982005e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>10.31453453453478</v>
+        <v>9.722502502502735</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.513843843843905</v>
+        <v>-3.223503503503578</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.14291291291346</v>
+        <v>22.66850850850905</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4536700667485933</v>
+        <v>0.1129712915973653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4536700667485933</v>
+        <v>0.1129712915973653</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.615596368704816</v>
+        <v>6.579104809099542</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.494234548839005, 13.725427286248637]</t>
+          <t>[-0.9323555278158455, 14.09056514601493]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3129617409276981</v>
+        <v>0.08450220319232038</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3129617409276981</v>
+        <v>0.08450220319232038</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.069263693597235</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-6.182553710668202, 0.04402632347373103]</t>
+          <t>[-4.591316590831929, -1.522052897234695]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05318883962990562</v>
+        <v>0.0002249275223955571</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05318883962990562</v>
+        <v>0.0002249275223955571</v>
       </c>
       <c r="T5" t="n">
-        <v>13.0647538840244</v>
+        <v>10.4556640925959</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.063803214818225, 18.06570455323058]</t>
+          <t>[6.241153228779643, 14.670174956412163]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.830072023314202e-06</v>
+        <v>9.299689919917142e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.830072023314202e-06</v>
+        <v>9.299689919917142e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>12.64696696696726</v>
+        <v>12.63405405405435</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1814114114114158</v>
+        <v>6.291031031031182</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.47534534534594</v>
+        <v>18.97707707707753</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.369986612720908</v>
+        <v>0.2137439083319839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.369986612720908</v>
+        <v>0.2137439083319839</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.497545682622563</v>
+        <v>5.152883198118042</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.346162569217997, 12.341253934463122]</t>
+          <t>[-1.977855201930165, 12.283621598166249]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2542365288160957</v>
+        <v>0.1524857323175333</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2542365288160957</v>
+        <v>0.1524857323175333</v>
       </c>
       <c r="P6" t="n">
-        <v>3.012658420559581</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.10063159651138509, 6.125948437630547]</t>
+          <t>[-5.585053606381854, -0.32705268866200043]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05754556944829559</v>
+        <v>0.02839834751200199</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05754556944829559</v>
+        <v>0.02839834751200199</v>
       </c>
       <c r="T6" t="n">
-        <v>11.74108621338733</v>
+        <v>11.54162323970277</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.360616115949825, 16.121556310824843]</t>
+          <t>[7.597108299986573, 15.486138179418958]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.415800950172908e-06</v>
+        <v>4.496211005733386e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.415800950172908e-06</v>
+        <v>4.496211005733386e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>13.47627627627659</v>
+        <v>12.21811811811841</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6478978978979129</v>
+        <v>1.351791791791824</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.30465465465527</v>
+        <v>23.084444444445</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09597133774562805</v>
+        <v>0.6379681150048622</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09597133774562805</v>
+        <v>0.6379681150048622</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.129767542609443</v>
+        <v>2.89932696076766</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.660323592868778, 13.919858678087664]</t>
+          <t>[-5.5495231699633045, 11.348177091498624]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1200077844895195</v>
+        <v>0.493012566966315</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1200077844895195</v>
+        <v>0.493012566966315</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55981623625835</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.5094474573388847, 5.629079929855585]</t>
+          <t>[-0.6792632764518469, 5.597632555945778]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09992791656281441</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09992791656281441</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="T7" t="n">
-        <v>10.33766958051224</v>
+        <v>14.16011896412416</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.371806946302778, 14.303532214721697]</t>
+          <t>[9.741294255062535, 18.578943673185783]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.983286414488418e-06</v>
+        <v>6.595370449780091e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.983286414488418e-06</v>
+        <v>6.595370449780091e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>15.34222222222258</v>
+        <v>15.80556556556594</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.695255255255319</v>
+        <v>2.833563563563628</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.98918918918984</v>
+        <v>28.77756756756825</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0313161502983299</v>
+        <v>0.06486184211584045</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0313161502983299</v>
+        <v>0.06486184211584045</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.826665501974899</v>
+        <v>5.978163998802049</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.18485261306303968, 15.468478390886759]</t>
+          <t>[-0.38517838056609577, 12.341506378170195]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.04492864297524357</v>
+        <v>0.06491041923837937</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04492864297524357</v>
+        <v>0.06491041923837937</v>
       </c>
       <c r="P8" t="n">
-        <v>1.893131909370426</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 3.3522900587855045]</t>
+          <t>[0.22013161736865428, 3.08813211794312]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01215566929480705</v>
+        <v>0.02474118642047363</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01215566929480705</v>
+        <v>0.02474118642047363</v>
       </c>
       <c r="T8" t="n">
-        <v>11.24978539274458</v>
+        <v>10.87364065101976</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.997992222159606, 15.501578563329556]</t>
+          <t>[7.193137329421505, 14.55414397261802]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.052879741449743e-06</v>
+        <v>3.698492943016163e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>3.052879741449743e-06</v>
+        <v>3.698492943016163e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.08930930930974</v>
+        <v>19.13305305305351</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.0768168168171</v>
+        <v>13.20596596596628</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.10180180180237</v>
+        <v>25.06014014014074</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2168822191435521</v>
+        <v>0.2224726617849786</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2168822191435521</v>
+        <v>0.2224726617849786</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.287072567435112</v>
+        <v>4.262646897500931</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.434915406897124, 11.009060541767349]</t>
+          <t>[-2.1036746757143767, 10.628968470716238]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2055294049066734</v>
+        <v>0.1842243553404801</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2055294049066734</v>
+        <v>0.1842243553404801</v>
       </c>
       <c r="P9" t="n">
-        <v>1.943447707626119</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1761317842268095, 5.063027199479047]</t>
+          <t>[-1.496894998106848, 4.327158649989546]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2160459517692925</v>
+        <v>0.3329236018443067</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2160459517692925</v>
+        <v>0.3329236018443067</v>
       </c>
       <c r="T9" t="n">
-        <v>9.160703543478604</v>
+        <v>9.234383402962901</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.5774562697242605, 12.743950817232948]</t>
+          <t>[5.690616936515932, 12.778149869409871]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.589991986632015e-06</v>
+        <v>4.006368253817172e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.589991986632015e-06</v>
+        <v>4.006368253817172e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.8819819819824</v>
+        <v>20.12090090090138</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.0276876876878</v>
+        <v>8.084754754754945</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.736276276277</v>
+        <v>32.15704704704781</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0580173215663693</v>
+        <v>0.06174942834001973</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0580173215663693</v>
+        <v>0.06174942834001973</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.221885068061589</v>
+        <v>6.92604986558551</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.2249209155753391, 14.668691051698517]</t>
+          <t>[-0.37974777848944186, 14.231847509660462]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.05702236839715402</v>
+        <v>0.06259698717073192</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05702236839715402</v>
+        <v>0.06259698717073192</v>
       </c>
       <c r="P10" t="n">
-        <v>1.616395018964117</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 3.000079470995657]</t>
+          <t>[-0.006289474781961069, 2.8365531266646586]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02306239220051887</v>
+        <v>0.05097949118948919</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02306239220051887</v>
+        <v>0.05097949118948919</v>
       </c>
       <c r="T10" t="n">
-        <v>10.69682915427532</v>
+        <v>10.89207742161542</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.360000884537634, 15.033657424013008]</t>
+          <t>[6.723786581699114, 15.06036826153172]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.023925767018596e-05</v>
+        <v>3.813863493684622e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.023925767018596e-05</v>
+        <v>3.813863493684622e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>19.22960960961006</v>
+        <v>20.12090090090138</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.52810810810843</v>
+        <v>14.24580580580614</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.9311111111117</v>
+        <v>25.99599599599662</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.89000000000061</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2062081759889305</v>
+        <v>0.02275204248990914</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2062081759889305</v>
+        <v>0.02275204248990914</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.688357028054398</v>
+        <v>8.953529777803347</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.22687053517957, 13.603584591288366]</t>
+          <t>[0.7882453933487561, 17.118814162257937]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.154700633271039</v>
+        <v>0.03234275566364575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.154700633271039</v>
+        <v>0.03234275566364575</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2201316173686543</v>
+        <v>0.5094474573388856</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.528368862348542, 2.9686320970858504]</t>
+          <t>[-0.6792632764518469, 1.6981581911296182]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.8725692470700204</v>
+        <v>0.3926119510892887</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8725692470700204</v>
+        <v>0.3926119510892887</v>
       </c>
       <c r="T11" t="n">
-        <v>12.10977700446058</v>
+        <v>12.94142099746742</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.803492819932767, 16.416061188988397]</t>
+          <t>[8.664500323903177, 17.218341671031656]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.823338558145878e-07</v>
+        <v>2.260781195584372e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>9.823338558145878e-07</v>
+        <v>2.260781195584372e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>24.98294294294353</v>
+        <v>23.86432432432489</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.65768768768801</v>
+        <v>18.95108108108153</v>
       </c>
       <c r="Z11" t="n">
-        <v>36.30819819819905</v>
+        <v>28.77756756756825</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,73 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.28000000000004</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7022872428485402</v>
+        <v>0.1754408737645579</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7022872428485402</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>0.1754408737645579</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.07702007059260296</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.07702007059260296</v>
+      </c>
       <c r="L12" t="n">
-        <v>2.785204622729784</v>
+        <v>5.170365289136265</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-6.082857904994425, 11.653267150453994]</t>
+          <t>[-2.231084541567647, 12.571815119840176]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.5302143632820662</v>
+        <v>0.1663044160661091</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5302143632820662</v>
+        <v>0.1663044160661091</v>
       </c>
       <c r="P12" t="n">
-        <v>0.748447499053424</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, 3.886895415252236]</t>
+          <t>[-3.226500563146274, 2.220184598032427]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6333286146673092</v>
+        <v>0.711549696615509</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6333286146673092</v>
+        <v>0.711549696615509</v>
       </c>
       <c r="T12" t="n">
-        <v>13.35894409556317</v>
+        <v>9.070928309763657</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.693627031692376, 18.02426115943397]</t>
+          <t>[5.073426953341013, 13.0684296661863]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.908700374008703e-07</v>
+        <v>3.788601136145431e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>6.908700374008703e-07</v>
+        <v>3.788601136145431e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>19.62602602602606</v>
+        <v>1.761761761761761</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.497177177177194</v>
+        <v>-7.773773773773776</v>
       </c>
       <c r="Z12" t="n">
-        <v>30.75487487487494</v>
+        <v>11.2972972972973</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1531,73 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.28000000000004</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3014556044020993</v>
+        <v>0.2912976555572664</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3014556044020993</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.2912976555572664</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1741769823266739</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1741769823266739</v>
+      </c>
       <c r="L13" t="n">
-        <v>4.710172093800667</v>
+        <v>5.145407451162481</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.3556155212712433, 12.775959708872577]</t>
+          <t>[-3.5853695242325, 13.876184426557462]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2457100023435246</v>
+        <v>0.2414583902064693</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2457100023435246</v>
+        <v>0.2414583902064693</v>
       </c>
       <c r="P13" t="n">
-        <v>0.698131700797731</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.427737265837157, 3.8240006674326192]</t>
+          <t>[-2.3019477701979265, 3.9749480621996987]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6549925421248139</v>
+        <v>0.5940327865781001</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6549925421248139</v>
+        <v>0.5940327865781001</v>
       </c>
       <c r="T13" t="n">
-        <v>12.0147305928815</v>
+        <v>13.80846082829865</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.756022050563246, 16.273439135199744]</t>
+          <t>[9.278352042059693, 18.33856961453761]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.229871253957356e-07</v>
+        <v>1.93900850042894e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>9.229871253957356e-07</v>
+        <v>1.93900850042894e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>19.80444444444448</v>
+        <v>19.07107107107107</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.720200200200223</v>
+        <v>8.082082082082081</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.88868868868875</v>
+        <v>30.06006006006006</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1621,73 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.28000000000004</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1313605929482826</v>
+        <v>0.03097858592291203</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1313605929482826</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>0.03097858592291203</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.450597324768334</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.450597324768334</v>
+      </c>
       <c r="L14" t="n">
-        <v>6.443782649210299</v>
+        <v>7.653386529881036</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.6074095928343333, 14.49497489125493]</t>
+          <t>[0.6710085704013427, 14.63576448936073]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1139565387879025</v>
+        <v>0.03240813306828683</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1139565387879025</v>
+        <v>0.03240813306828683</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.0629477284833877, 3.9875270117636203]</t>
+          <t>[0.19497371824080734, 2.6101320345140424]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5249923591005983</v>
+        <v>0.02381853612115292</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5249923591005983</v>
+        <v>0.02381853612115292</v>
       </c>
       <c r="T14" t="n">
-        <v>13.55699431337308</v>
+        <v>12.44353111904434</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.189789214888009, 17.924199411858154]</t>
+          <t>[8.605310005318893, 16.28175223276979]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.316829414399479e-07</v>
+        <v>5.091663357603693e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.316829414399479e-07</v>
+        <v>5.091663357603693e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>18.86774774774779</v>
+        <v>17.08908908908909</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.140340340340359</v>
+        <v>12.86086086086086</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.59515515515521</v>
+        <v>21.31731731731732</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1711,73 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.28000000000004</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2394891482682053</v>
+        <v>0.322287606877367</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2394891482682053</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>0.322287606877367</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.04464181645077403</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.04464181645077403</v>
+      </c>
       <c r="L15" t="n">
-        <v>4.7839659848234</v>
+        <v>5.1017507511867</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.9714239679082333, 11.539355937555033]</t>
+          <t>[-3.0182658645640847, 13.221767366937485]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1606749360671187</v>
+        <v>0.2122242119118938</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1606749360671187</v>
+        <v>0.2122242119118938</v>
       </c>
       <c r="P15" t="n">
-        <v>1.654131867655887</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.484316048542925, 4.792579783854699]</t>
+          <t>[-1.3648160276856567, 4.522132368230353]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.2941080282738375</v>
+        <v>0.2858026802125115</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2941080282738375</v>
+        <v>0.2858026802125115</v>
       </c>
       <c r="T15" t="n">
-        <v>12.04490425478778</v>
+        <v>10.51112367908481</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.18558044674332, 15.904228062832242]</t>
+          <t>[5.8934256609160744, 15.128821697253548]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.173428878509242e-07</v>
+        <v>3.615794331102151e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>1.173428878509242e-07</v>
+        <v>3.615794331102151e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>16.41449449449453</v>
+        <v>16.47247247247248</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.285645645645657</v>
+        <v>6.166166166166168</v>
       </c>
       <c r="Z15" t="n">
-        <v>27.54334334334339</v>
+        <v>26.77877877877878</v>
       </c>
     </row>
   </sheetData>
